--- a/data/input/TrainerParamsScenarios.xlsx
+++ b/data/input/TrainerParamsScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/RockPaperScissorsTrainer/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65AD588-894E-0A4C-8ACC-07A49D7E2341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8B3B7E-C86A-554E-BA13-C06A7E402F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>20</v>
